--- a/generated_output/temp/us-core-practitionerrole.xlsx
+++ b/generated_output/temp/us-core-practitionerrole.xlsx
@@ -174,7 +174,7 @@
     <t>Y</t>
   </si>
   <si>
-    <t xml:space="preserve">id {[]} {[]}
+    <t xml:space="preserve">id
 </t>
   </si>
   <si>
@@ -193,7 +193,7 @@
     <t>PractitionerRole.meta</t>
   </si>
   <si>
-    <t xml:space="preserve">Meta {[]} {[]}
+    <t xml:space="preserve">Meta
 </t>
   </si>
   <si>
@@ -209,7 +209,7 @@
     <t>PractitionerRole.implicitRules</t>
   </si>
   <si>
-    <t xml:space="preserve">uri {[]} {[]}
+    <t xml:space="preserve">uri
 </t>
   </si>
   <si>
@@ -228,7 +228,7 @@
     <t>PractitionerRole.language</t>
   </si>
   <si>
-    <t xml:space="preserve">code {[]} {[]}
+    <t xml:space="preserve">code
 </t>
   </si>
   <si>
@@ -260,7 +260,7 @@
 htmlxhtmldisplay</t>
   </si>
   <si>
-    <t xml:space="preserve">Narrative {[]} {[]}
+    <t xml:space="preserve">Narrative
 </t>
   </si>
   <si>
@@ -286,7 +286,7 @@
 anonymous resourcescontained resources</t>
   </si>
   <si>
-    <t xml:space="preserve">Resource {[]} {[]}
+    <t xml:space="preserve">Resource
 </t>
   </si>
   <si>
@@ -312,7 +312,7 @@
 user content</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {[]} {[]}
+    <t xml:space="preserve">Extension
 </t>
   </si>
   <si>
@@ -347,7 +347,7 @@
     <t>PractitionerRole.identifier</t>
   </si>
   <si>
-    <t xml:space="preserve">Identifier {[]} {[]}
+    <t xml:space="preserve">Identifier
 </t>
   </si>
   <si>
@@ -375,7 +375,7 @@
     <t>PractitionerRole.active</t>
   </si>
   <si>
-    <t xml:space="preserve">boolean {[]} {[]}
+    <t xml:space="preserve">boolean
 </t>
   </si>
   <si>
@@ -406,7 +406,7 @@
     <t>PractitionerRole.period</t>
   </si>
   <si>
-    <t xml:space="preserve">Period {[]} {[]}
+    <t xml:space="preserve">Period
 </t>
   </si>
   <si>
@@ -434,7 +434,7 @@
     <t>PractitionerRole.practitioner</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/core/StructureDefinition/us-core-practitioner]]}
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/core/StructureDefinition/us-core-practitioner)
 </t>
   </si>
   <si>
@@ -450,7 +450,7 @@
     <t>PractitionerRole.organization</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/core/StructureDefinition/us-core-organization]]}
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/core/StructureDefinition/us-core-organization)
 </t>
   </si>
   <si>
@@ -466,7 +466,7 @@
     <t>PractitionerRole.code</t>
   </si>
   <si>
-    <t xml:space="preserve">CodeableConcept {[]} {[]}
+    <t xml:space="preserve">CodeableConcept
 </t>
   </si>
   <si>
@@ -524,7 +524,7 @@
     <t>PractitionerRole.location</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/core/StructureDefinition/us-core-location]]}
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/core/StructureDefinition/us-core-location)
 </t>
   </si>
   <si>
@@ -546,7 +546,7 @@
     <t>PractitionerRole.healthcareService</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/HealthcareService]]}
+    <t xml:space="preserve">Reference(HealthcareService)
 </t>
   </si>
   <si>
@@ -565,7 +565,7 @@
     <t>PractitionerRole.telecom</t>
   </si>
   <si>
-    <t xml:space="preserve">ContactPoint {[]} {[]}
+    <t xml:space="preserve">ContactPoint
 </t>
   </si>
   <si>
@@ -584,7 +584,7 @@
     <t>PractitionerRole.telecom.id</t>
   </si>
   <si>
-    <t xml:space="preserve">string {[]} {[]}
+    <t xml:space="preserve">string
 </t>
   </si>
   <si>
@@ -716,7 +716,7 @@
     <t>PractitionerRole.telecom.rank</t>
   </si>
   <si>
-    <t xml:space="preserve">positiveInt {[]} {[]}
+    <t xml:space="preserve">positiveInt
 </t>
   </si>
   <si>
@@ -753,7 +753,7 @@
     <t>PractitionerRole.availableTime</t>
   </si>
   <si>
-    <t xml:space="preserve">BackboneElement {[]} {[]}
+    <t xml:space="preserve">BackboneElement
 </t>
   </si>
   <si>
@@ -823,7 +823,7 @@
     <t>PractitionerRole.availableTime.availableStartTime</t>
   </si>
   <si>
-    <t xml:space="preserve">time {[]} {[]}
+    <t xml:space="preserve">time
 </t>
   </si>
   <si>
@@ -893,7 +893,7 @@
     <t>PractitionerRole.endpoint</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/Endpoint]]}
+    <t xml:space="preserve">Reference(Endpoint)
 </t>
   </si>
   <si>
@@ -958,67 +958,67 @@
     </border>
     <border>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
     </border>
     <border>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <bottom style="thin"/>
     </border>
     <border>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </bottom>
     </border>
     <border>
       <left style="thin"/>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </bottom>
     </border>
     <border>
       <left style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </left>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </bottom>
     </border>
     <border>
       <left style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </left>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <top style="thin"/>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </bottom>
     </border>
     <border>
       <left style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </left>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <top style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </top>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </bottom>
     </border>
   </borders>
